--- a/EXCIE_de.xlsx
+++ b/EXCIE_de.xlsx
@@ -29,7 +29,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Tëêstïíng</t>
+      <t>Tèèstïìng</t>
     </r>
     <r>
       <rPr>
@@ -49,7 +49,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ÓN</t>
+      <t>ÖN</t>
     </r>
   </si>
   <si>
@@ -60,7 +60,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ÎÈ</t>
+      <t>ÌË</t>
     </r>
   </si>
 </sst>
